--- a/Sklad3/templates/mat_rep.xlsx
+++ b/Sklad3/templates/mat_rep.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">остаток на начало месяца</t>
   </si>
   <si>
-    <t xml:space="preserve">             приход</t>
+    <t xml:space="preserve">приход</t>
   </si>
   <si>
     <t xml:space="preserve">расход</t>
@@ -92,27 +92,108 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="10">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
+  <fonts count="21">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="204"/>
@@ -156,20 +237,77 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -208,7 +346,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -232,133 +370,253 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -370,24 +628,25 @@
   <dimension ref="A1:AW28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.28571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4.70918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.8163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="5.41836734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.13775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.13775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="7.98979591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.8469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.6989795918367"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,10 +772,10 @@
         <v>12</v>
       </c>
       <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="14" t="s">
         <v>14</v>
       </c>
@@ -545,300 +804,300 @@
       <c r="K7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="21"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="21"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="24"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="24"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="26"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
